--- a/0WM_BLT3/Process/0WM_BLT3.xlsx
+++ b/0WM_BLT3/Process/0WM_BLT3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -110,80 +110,179 @@
     <t>3</t>
   </si>
   <si>
-    <t>B2CPU</t>
-  </si>
-  <si>
-    <t>B2DDR</t>
-  </si>
-  <si>
-    <t>LEDA_BTMACW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEDA_BTMACR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEDA_BTMACW_TestResult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEDA_BTMACR_TestResult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEDA_DMICL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEDA_DMICL_TestResult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEDA_RGB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEDA_RGB_TestResult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEDA_BLE_TestResult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEDA_BLE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT3\BLT3_LEDA_BTMACW.bat</t>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT3\log\LEDA_BTMACW_LogCheck.bat</t>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT3\BLT3_LEDA_BTMACR.bat</t>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT3\log\LEDA_BTMACR_LogCheck.bat</t>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT3\BLT3_LEDA_BLE.bat</t>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT3\log\LEDA_BLE_LogCheck.bat</t>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT3\BLT3_LEDA_DMICL.bat</t>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT3\log\LEDA_DMICL_LogCheck.bat</t>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT3\BLT3_LEDA_RGB.bat</t>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT3\log\LEDA_RGB_LogCheck.bat</t>
+    <t>Check_XMOS</t>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\Test_Check_XMOS.bat</t>
+  </si>
+  <si>
+    <t>Check_XMOS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\log\Test_Check_XMOS_CheckLog.bat</t>
+  </si>
+  <si>
+    <t>Audio_Out_L_AIN_1</t>
+  </si>
+  <si>
+    <t>Audio_Out_L_AIN_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\log\Test_Audio_Out_L_AIN_1_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio_Out_L_AIN_2</t>
+  </si>
+  <si>
+    <t>Audio_Out_L_AIN_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\Test_Audio_Out_L_AIN_2.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\Test_Audio_Out_L_AIN_1.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\log\Test_Audio_Out_L_AIN_2_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio_Out_L_AIN_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\Test_Audio_Out_L_AIN_3.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\log\Test_Audio_Out_L_AIN_3_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio_Out_R_AIN_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio_Out_R_AIN_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio_Out_R_AIN_6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\Test_Audio_Out_R_AIN_4.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\log\Test_Audio_Out_R_AIN_4_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\Test_Audio_Out_R_AIN_5.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\log\Test_Audio_Out_R_AIN_5_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\Test_Audio_Out_R_AIN_6.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\log\Test_Audio_Out_R_AIN_6_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Headset_Loopback_L</t>
+  </si>
+  <si>
+    <t>Headset_Loopback_L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\Test_Headset_Loopback_L.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\log\Test_Headset_Loopback_L_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Headset_Loopback_R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\Test_Headset_Loopback_R.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\log\Test_Headset_Loopback_R_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speaker_L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\Test_Speaker_L.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\log\Test_Speaker_L_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speaker_R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\Test_Speaker_R.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\log\Test_Speaker_R_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED10to16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\Test_LED10to16.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\log\Test_LED10to16_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -571,16 +670,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="2" bestFit="1" customWidth="1"/>
@@ -673,16 +772,16 @@
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>21</v>
@@ -696,22 +795,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M3" s="2">
         <v>8</v>
@@ -725,22 +824,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>21</v>
@@ -754,25 +853,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
+      </c>
+      <c r="M5" s="2">
+        <v>8</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>21</v>
@@ -783,28 +882,231 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="M6" s="2">
+        <v>8</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="2">
+        <v>8</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="2">
+        <v>8</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="2">
+        <v>8</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="2">
+        <v>8</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="2">
+        <v>8</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/0WM_BLT3/Process/0WM_BLT3.xlsx
+++ b/0WM_BLT3/Process/0WM_BLT3.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -110,19 +110,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>Check_XMOS</t>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT3\Test_Check_XMOS.bat</t>
-  </si>
-  <si>
-    <t>Check_XMOS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT3\log\Test_Check_XMOS_CheckLog.bat</t>
-  </si>
-  <si>
     <t>Audio_Out_L_AIN_1</t>
   </si>
   <si>
@@ -283,6 +270,37 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>XMOS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check_XMOS_Ver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\Test_XMOS.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\log\Test_XMOS_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check_XMOS_Ver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\Test_Check_XMOS_Ver.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\log\Test_Check_XMOS_Ver_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
   </si>
 </sst>
 </file>
@@ -670,9 +688,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -766,22 +784,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>21</v>
@@ -795,25 +813,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="2">
-        <v>8</v>
+        <v>78</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>26</v>
@@ -824,25 +842,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>28</v>
@@ -853,25 +871,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="2">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>21</v>
@@ -882,25 +900,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M6" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>24</v>
@@ -911,28 +929,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="M7" s="2">
+        <v>4</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
@@ -940,28 +958,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="2">
-        <v>8</v>
+      <c r="M8" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
@@ -969,28 +987,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M9" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
@@ -998,28 +1016,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="M10" s="2">
+        <v>4</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
@@ -1027,28 +1045,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="2">
-        <v>8</v>
+        <v>55</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
@@ -1056,28 +1074,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="M12" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
@@ -1085,28 +1103,57 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="M13" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/0WM_BLT3/Process/0WM_BLT3.xlsx
+++ b/0WM_BLT3/Process/0WM_BLT3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -215,30 +215,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Speaker_L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT3\Test_Speaker_L.bat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT3\log\Test_Speaker_L_CheckLog.bat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speaker_R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT3\Test_Speaker_R.bat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\TestProgram\0WM\0WM_BLT3\log\Test_Speaker_R_CheckLog.bat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LED10to16</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -269,9 +245,6 @@
     <t>11</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>XMOS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -301,6 +274,18 @@
   </si>
   <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\Test_Speaker.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\log\Test_Speaker_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -688,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -784,22 +769,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>21</v>
@@ -813,22 +798,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>21</v>
@@ -950,7 +935,7 @@
         <v>4</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
@@ -979,7 +964,7 @@
         <v>21</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
@@ -1008,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
@@ -1037,7 +1022,7 @@
         <v>4</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
@@ -1066,7 +1051,7 @@
         <v>21</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
@@ -1074,86 +1059,57 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="M12" s="2">
         <v>4</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M13" s="2">
         <v>4</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="2">
-        <v>4</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/0WM_BLT3/Process/0WM_BLT3.xlsx
+++ b/0WM_BLT3/Process/0WM_BLT3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -286,6 +286,24 @@
   <si>
     <t>C:\TestProgram\0WM\0WM_BLT3\log\Test_Speaker_CheckLog.bat</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Headset_PreAMP_Gain</t>
+  </si>
+  <si>
+    <t>Headset_PreAMP_Gain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\Test_Headset_PreAMP_Gain.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\TestProgram\0WM\0WM_BLT3\log\Test_Headset_PreAMP_Gain_CheckLog.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -673,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1059,22 +1077,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M12" s="2">
         <v>4</v>
@@ -1085,30 +1103,59 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="M13" s="2">
         <v>4</v>
       </c>
       <c r="R13" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4</v>
+      </c>
+      <c r="R14" s="2" t="s">
         <v>72</v>
       </c>
     </row>
